--- a/Assets/5_Data/DialogueDataFile.xlsx
+++ b/Assets/5_Data/DialogueDataFile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd visual novel\Assets\5_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D19D4B-2B7F-4B32-872E-D9295ABA3AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDataFile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>VoiceName</t>
   </si>
@@ -215,10 +214,6 @@
     <t>DisappearSlide</t>
   </si>
   <si>
-    <t>Camera Torque</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>은성 첫인사</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -359,13 +354,25 @@
   </si>
   <si>
     <t>Sol1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraRotateDir</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1310,25 +1317,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1348,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A10" si="0">A2</f>
         <v>봉란 첫인사</v>
@@ -1383,7 +1390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1398,7 +1405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1407,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1416,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1428,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1446,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1458,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1473,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>A13</f>
         <v>심심한 봉란</v>
@@ -1496,7 +1503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>A14</f>
         <v>심심한 봉란</v>
@@ -1505,7 +1512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>A15</f>
         <v>심심한 봉란</v>
@@ -1517,7 +1524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>A16</f>
         <v>심심한 봉란</v>
@@ -1529,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" ref="A21:A27" si="1">A20</f>
         <v>괴상한 도구</v>
@@ -1555,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1570,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1579,7 +1586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1588,7 +1595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1597,7 +1604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1615,7 +1622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>괴상한 도구</v>
@@ -1624,7 +1631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>A30</f>
         <v>괴상한 도구After</v>
@@ -1650,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>A31</f>
         <v>괴상한 도구After</v>
@@ -1662,7 +1669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>A32</f>
         <v>괴상한 도구After</v>
@@ -1671,7 +1678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>A33</f>
         <v>괴상한 도구After</v>
@@ -1683,7 +1690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1694,21 +1701,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
       <c r="D38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>A38</f>
         <v>은성 첫인사</v>
@@ -1717,25 +1724,25 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" ref="A40:A43" si="2">A39</f>
         <v>은성 첫인사</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>은성 첫인사</v>
@@ -1744,60 +1751,60 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>은성 첫인사</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>은성 첫인사</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>A45</f>
         <v>처음 문열기</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>A46</f>
         <v>처음 문열기</v>
@@ -1806,13 +1813,16 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>A47</f>
         <v>처음 문열기</v>
@@ -1821,168 +1831,171 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" ref="A52:A58" si="3">A51</f>
         <v>지수 첫만남</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="3"/>
         <v>지수 첫만남</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
         <v>83</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
       <c r="D60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
       </c>
       <c r="C61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
       <c r="D62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
       </c>
       <c r="C63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/5_Data/DialogueDataFile.xlsx
+++ b/Assets/5_Data/DialogueDataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd visual novel\Assets\5_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020.3.14.f1 Version Unity Project\kd visual novel\Assets\5_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>VoiceName</t>
   </si>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1864,6 +1864,9 @@
       <c r="C52" t="s">
         <v>69</v>
       </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
@@ -1876,6 +1879,9 @@
       <c r="C53" t="s">
         <v>70</v>
       </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
@@ -1888,6 +1894,9 @@
       <c r="C54" t="s">
         <v>71</v>
       </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
@@ -1900,6 +1909,9 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
@@ -1912,6 +1924,9 @@
       <c r="C56" t="s">
         <v>72</v>
       </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
@@ -1924,6 +1939,9 @@
       <c r="C57" t="s">
         <v>73</v>
       </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
@@ -1935,6 +1953,9 @@
       </c>
       <c r="C58" t="s">
         <v>74</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
